--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:32:23+10:00</t>
+    <t>2024-06-13T06:51:52+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:51:52+10:00</t>
+    <t>2024-06-13T11:16:16+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -544,7 +544,7 @@
     <t>Observation.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Organization)
+    <t xml:space="preserve">Reference
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-14T06:31:35+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-18T16:49:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,7 +570,7 @@
     <t>valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-relatedperson|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-name-addr-tele)
+    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-relatedperson|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele-addr-name)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T16:49:21+10:00</t>
+    <t>2024-06-18T18:40:58+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T18:40:58+10:00</t>
+    <t>2024-06-21T10:51:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T10:51:28+10:00</t>
+    <t>2024-06-21T11:31:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T11:31:43+10:00</t>
+    <t>2024-06-25T09:09:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:09:40+10:00</t>
+    <t>2024-06-26T05:55:02+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,7 +570,7 @@
     <t>valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-relatedperson|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele-addr-name)
+    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-relatedperson|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-organization)
 </t>
   </si>
   <si>
@@ -3375,7 +3375,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="169.28515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="162.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T05:55:02+10:00</t>
+    <t>2024-06-26T06:31:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This Past or Present Job profile represents an anonymized eICR Past or Present Job.
-It is based on the **Occupational Data for Health Past Or Present Job** profile with further constraints to require masking of some data elements.</t>
+    <t>This Past or Present Job profile represents an anonymized eICR Past or Present Job.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:31:28+10:00</t>
+    <t>2024-06-26T06:54:29+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T19:57:37+10:00</t>
+    <t>2024-06-28T20:58:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
+++ b/output/StructureDefinition-eicr-anon-past-or-present-job.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T20:58:40+10:00</t>
+    <t>2024-06-29T16:05:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -407,7 +407,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {exists() implies `div`.toString().matches('&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;\\s*&lt;p&gt;MASKED&lt;/p&gt;\\s*&lt;/div&gt;')}</t>
   </si>
   <si>
     <t>Act.text?</t>
